--- a/Data Visualisasi UAS.xlsx
+++ b/Data Visualisasi UAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Penyimpanan Utama\Documents\2. Visualisasi Data\UAS VISDAT\Data_Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207D6A62-D395-4649-B33D-2201ABE8039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714C41E-ED1D-4329-85AF-9B29D39E5C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{691214C1-FC67-4AE3-A5F9-2F0B66DEF79B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{691214C1-FC67-4AE3-A5F9-2F0B66DEF79B}"/>
   </bookViews>
   <sheets>
     <sheet name="Komparasi Gaji" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Tahun</t>
   </si>
@@ -59,12 +59,6 @@
     <t>580 Anggota x Rp 4,2 Juta x 12 Bulan</t>
   </si>
   <si>
-    <t>Biaya Penyakit Jantung BPJS</t>
-  </si>
-  <si>
-    <t>Beban Lansia (2023)</t>
-  </si>
-  <si>
     <t>Jumlah Lansia (Juta Jiwa)</t>
   </si>
   <si>
@@ -122,21 +116,6 @@
     <t>Data Asli</t>
   </si>
   <si>
-    <t>12.14</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>3.24</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -186,13 +165,22 @@
   </si>
   <si>
     <t>Keuntungan</t>
+  </si>
+  <si>
+    <t>Biaya katastropik BPJS</t>
+  </si>
+  <si>
+    <t>Beban Lansia (2024)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +203,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,14 +265,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,8 +293,13 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,7 +615,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,13 +627,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -643,35 +650,36 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>17600000000000</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="15">
+        <f>SUM('Porsi BPJS'!B2:B6)</f>
+        <v>37283838640562</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="8">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7">
         <v>154600000000000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1385232</v>
+        <v>33</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8025889.4000000004</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -712,57 +720,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>9</v>
+      <c r="B1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>2020</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2021</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2022</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4">
         <v>34</v>
       </c>
-      <c r="C4" s="5">
-        <v>34</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2023</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4">
         <v>34</v>
       </c>
     </row>
@@ -787,35 +795,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B2" s="4">
+        <v>787080000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5">
-        <v>787080000</v>
-      </c>
-      <c r="C2" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>2480000000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>83</v>
       </c>
     </row>
@@ -829,85 +837,85 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="13">
+        <v>19250622010793</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="13">
+        <v>6488106411284</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="14">
+        <v>5817085160504</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2760968219728</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2967056838253</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3B03B9-6D23-4768-9CFD-33791F4CE30F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -931,17 +939,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>25</v>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -955,7 +963,7 @@
         <v>791</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -969,7 +977,7 @@
         <v>364</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -983,7 +991,7 @@
         <v>250</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -997,7 +1005,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1011,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1023,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399162A2-AFCD-4B63-AF24-BF6287993DEA}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,78 +1043,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="13">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12">
         <v>1383527</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2">
+        <v>41</v>
+      </c>
+      <c r="B3" s="16">
         <v>915106500</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="11"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="11"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="12"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Visualisasi UAS.xlsx
+++ b/Data Visualisasi UAS.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Penyimpanan Utama\Documents\2. Visualisasi Data\UAS VISDAT\Data_Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714C41E-ED1D-4329-85AF-9B29D39E5C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1149D8-8665-4A05-811C-A6B8148C128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{691214C1-FC67-4AE3-A5F9-2F0B66DEF79B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{691214C1-FC67-4AE3-A5F9-2F0B66DEF79B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Komparasi Gaji" sheetId="1" r:id="rId1"/>
-    <sheet name="Korelasi Lansia" sheetId="2" r:id="rId2"/>
-    <sheet name="Benchmark Negara" sheetId="3" r:id="rId3"/>
-    <sheet name="Porsi BPJS" sheetId="4" r:id="rId4"/>
-    <sheet name="Proyeksi Masa Depan" sheetId="6" r:id="rId5"/>
-    <sheet name="Analisis ROI" sheetId="7" r:id="rId6"/>
+    <sheet name="Komparasi Gaji (Framing)" sheetId="1" r:id="rId1"/>
+    <sheet name="Komparasi Gaji (Real)" sheetId="10" r:id="rId2"/>
+    <sheet name="Korelasi Lansia (Framing)" sheetId="2" r:id="rId3"/>
+    <sheet name="Korelasi Lansia (Real)" sheetId="11" r:id="rId4"/>
+    <sheet name="Benchmark Negara (Framing)" sheetId="3" r:id="rId5"/>
+    <sheet name="Benchmark Negara (Real)" sheetId="12" r:id="rId6"/>
+    <sheet name="Analisis ROI (Framing)" sheetId="7" r:id="rId7"/>
+    <sheet name="Analisis ROI (Real)" sheetId="13" r:id="rId8"/>
+    <sheet name="Trend Katastropik" sheetId="8" r:id="rId9"/>
+    <sheet name="Belanja Pensiun" sheetId="9" r:id="rId10"/>
+    <sheet name="Proyeksi Masa Depan" sheetId="6" r:id="rId11"/>
+    <sheet name="Porsi BPJS" sheetId="4" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>Tahun</t>
   </si>
@@ -122,27 +128,12 @@
     <t>Proyeksi</t>
   </si>
   <si>
-    <t>29.74</t>
-  </si>
-  <si>
-    <t>26.82</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.39 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Belanja Pensiun APBN </t>
   </si>
   <si>
     <t>Gaji Pensiunan</t>
   </si>
   <si>
-    <t>Suntik Mati</t>
-  </si>
-  <si>
     <t>Proyeksi Gaji DPR</t>
   </si>
   <si>
@@ -171,6 +162,57 @@
   </si>
   <si>
     <t>Beban Lansia (2024)</t>
+  </si>
+  <si>
+    <t>Biaya</t>
+  </si>
+  <si>
+    <t>133.9</t>
+  </si>
+  <si>
+    <t>164.4</t>
+  </si>
+  <si>
+    <t>125.5</t>
+  </si>
+  <si>
+    <t>Anggaran(Triliun)</t>
+  </si>
+  <si>
+    <t>110.2</t>
+  </si>
+  <si>
+    <t>580 Anggota x Rp65,59 x 12 Bulan</t>
+  </si>
+  <si>
+    <t>32.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.94 </t>
+  </si>
+  <si>
+    <t>29.66</t>
+  </si>
+  <si>
+    <t>28.19</t>
+  </si>
+  <si>
+    <t>26.84</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Biaya Awal</t>
+  </si>
+  <si>
+    <t>Pengobatan Jantung + Gaji Pensiun (10 Tahun)</t>
   </si>
 </sst>
 </file>
@@ -180,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +262,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -292,11 +340,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -612,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E572F1FF-24CC-4338-8851-B2763E5E3A46}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,43 +709,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="15">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12">
         <f>SUM('Porsi BPJS'!B2:B6)</f>
         <v>37283838640562</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7">
         <v>154600000000000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="7">
-        <v>8025889.4000000004</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -697,8 +748,258 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA973CFE-DDC0-42E1-A67E-9BE45978280A}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3B03B9-6D23-4768-9CFD-33791F4CE30F}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="2">
+        <v>720000000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>791</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="2">
+        <v>720000000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>364</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1200000000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>250</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2400000000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2027</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3600000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E591CDE-C4D2-4461-8CB6-2C74BEA243EF}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="13">
+        <v>19250622010793</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="13">
+        <v>6488106411284</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="14">
+        <v>5817085160504</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2760968219728</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2967056838253</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -706,11 +1007,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8901D888-8BE0-405B-82AF-E7EE6BDD4AD7}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="18">
+        <v>456506400000</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12">
+        <f>SUM('Porsi BPJS'!B2:B6)</f>
+        <v>37283838640562</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7">
+        <v>154600000000000</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7482A337-C6CB-4B85-8764-1BD0373D7E6C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +1120,7 @@
         <v>2020</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4">
         <v>37</v>
@@ -746,7 +1131,7 @@
         <v>2021</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4">
         <v>38</v>
@@ -757,7 +1142,7 @@
         <v>2022</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4">
         <v>34</v>
@@ -768,7 +1153,7 @@
         <v>2023</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4">
         <v>34</v>
@@ -779,12 +1164,97 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76C70CC-E41B-4D96-89DB-CD6154D241DF}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="19">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0030FAE2-50F7-4607-9B05-1D4EBB796FDF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,7 +1269,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
@@ -825,201 +1295,6 @@
       </c>
       <c r="C3" s="4">
         <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E591CDE-C4D2-4461-8CB6-2C74BEA243EF}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="13">
-        <v>19250622010793</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="13">
-        <v>6488106411284</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="14">
-        <v>5817085160504</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2760968219728</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2967056838253</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3B03B9-6D23-4768-9CFD-33791F4CE30F}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="2">
-        <v>720000000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>791</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B3" s="2">
-        <v>720000000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>364</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1200000000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>250</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>2026</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2400000000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>2027</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3600000000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1028,72 +1303,166 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FB8A6F-8E13-4414-B779-84A605CE0FEA}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2480000000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="20">
+        <v>703601950</v>
+      </c>
+      <c r="C3" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>787080000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1718380050</v>
+      </c>
+      <c r="C5" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1018731200</v>
+      </c>
+      <c r="C6" s="6">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399162A2-AFCD-4B63-AF24-BF6287993DEA}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1383527</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="A2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1181121300</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="16">
-        <v>915106500</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="7">
+        <v>8025889.4000000004</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1173095411</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="10"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="10"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="11"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="11"/>
@@ -1104,17 +1473,181 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="10"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="11"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EAEC9A-4BC7-43E1-BFBE-B9429562927E}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1181121300</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7">
+        <v>27065015</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1154056285</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE7A3D1-E7BA-49DD-A496-83E9C2DB372B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="16">
+        <v>17920000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="16">
+        <v>24050000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="16">
+        <v>33000000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="16">
+        <v>37280000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Visualisasi UAS.xlsx
+++ b/Data Visualisasi UAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Penyimpanan Utama\Documents\2. Visualisasi Data\UAS VISDAT\Data_Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1149D8-8665-4A05-811C-A6B8148C128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC2D01-5843-43DF-801D-E3B4B0A6E5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{691214C1-FC67-4AE3-A5F9-2F0B66DEF79B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{691214C1-FC67-4AE3-A5F9-2F0B66DEF79B}"/>
   </bookViews>
   <sheets>
     <sheet name="Komparasi Gaji (Framing)" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>Tahun</t>
   </si>
@@ -164,55 +164,73 @@
     <t>Beban Lansia (2024)</t>
   </si>
   <si>
+    <t>133.9</t>
+  </si>
+  <si>
+    <t>164.4</t>
+  </si>
+  <si>
+    <t>125.5</t>
+  </si>
+  <si>
+    <t>Anggaran(Triliun)</t>
+  </si>
+  <si>
+    <t>110.2</t>
+  </si>
+  <si>
+    <t>32.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.94 </t>
+  </si>
+  <si>
+    <t>29.66</t>
+  </si>
+  <si>
+    <t>28.19</t>
+  </si>
+  <si>
+    <t>26.84</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Biaya Awal</t>
+  </si>
+  <si>
+    <t>Pengobatan Jantung + Gaji Pensiun (10 Tahun)</t>
+  </si>
+  <si>
+    <t>per tahun</t>
+  </si>
+  <si>
+    <t>33040066 kasus, 12 bulan, Rp37juta</t>
+  </si>
+  <si>
+    <t>580 Anggota, Rp65,59juta, 12 Bulan</t>
+  </si>
+  <si>
+    <t>Gaji Pensiunan, 3,65 juta orang</t>
+  </si>
+  <si>
+    <t>per bulan</t>
+  </si>
+  <si>
+    <t>Gaji + Tunjangan DPR RI (Setahun)</t>
+  </si>
+  <si>
+    <t>Biaya Katastropik BPJS</t>
+  </si>
+  <si>
     <t>Biaya</t>
-  </si>
-  <si>
-    <t>133.9</t>
-  </si>
-  <si>
-    <t>164.4</t>
-  </si>
-  <si>
-    <t>125.5</t>
-  </si>
-  <si>
-    <t>Anggaran(Triliun)</t>
-  </si>
-  <si>
-    <t>110.2</t>
-  </si>
-  <si>
-    <t>580 Anggota x Rp65,59 x 12 Bulan</t>
-  </si>
-  <si>
-    <t>32.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.94 </t>
-  </si>
-  <si>
-    <t>29.66</t>
-  </si>
-  <si>
-    <t>28.19</t>
-  </si>
-  <si>
-    <t>26.84</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Biaya Awal</t>
-  </si>
-  <si>
-    <t>Pengobatan Jantung + Gaji Pensiun (10 Tahun)</t>
   </si>
 </sst>
 </file>
@@ -317,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -344,18 +362,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -674,7 +687,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="7">
-        <v>154600000000000</v>
+        <v>164400000000000</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -771,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +792,7 @@
         <v>2018</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,7 +800,7 @@
         <v>2020</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -795,7 +808,7 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,7 +816,7 @@
         <v>2024</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1008,21 +1021,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8901D888-8BE0-405B-82AF-E7EE6BDD4AD7}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1033,56 +1046,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="18">
-        <v>456506400000</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2">
+        <v>787080000</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>787080000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="12">
-        <f>SUM('Porsi BPJS'!B2:B6)</f>
-        <v>37283838640562</v>
+        <v>60</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13541318</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>13541318</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="7">
-        <v>154600000000000</v>
+        <v>45041095</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>3753424</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
   </sheetData>
@@ -1095,7 +1125,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,7 +1150,7 @@
         <v>2020</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4">
         <v>37</v>
@@ -1131,7 +1161,7 @@
         <v>2021</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4">
         <v>38</v>
@@ -1142,7 +1172,7 @@
         <v>2022</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4">
         <v>34</v>
@@ -1153,7 +1183,7 @@
         <v>2023</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4">
         <v>34</v>
@@ -1168,7 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76C70CC-E41B-4D96-89DB-CD6154D241DF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -1194,7 +1224,7 @@
         <v>2020</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4">
         <v>37</v>
@@ -1205,7 +1235,7 @@
         <v>2021</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4">
         <v>38</v>
@@ -1216,7 +1246,7 @@
         <v>2022</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4">
         <v>34</v>
@@ -1227,20 +1257,20 @@
         <v>2023</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="4">
         <v>2024</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="19">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4">
         <v>37</v>
       </c>
     </row>
@@ -1341,9 +1371,9 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="20">
+        <v>51</v>
+      </c>
+      <c r="B3" s="17">
         <v>703601950</v>
       </c>
       <c r="C3" s="6">
@@ -1363,9 +1393,9 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="20">
+        <v>50</v>
+      </c>
+      <c r="B5" s="17">
         <v>1718380050</v>
       </c>
       <c r="C5" s="6">
@@ -1374,9 +1404,9 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="20">
+        <v>49</v>
+      </c>
+      <c r="B6" s="17">
         <v>1018731200</v>
       </c>
       <c r="C6" s="6">
@@ -1393,7 +1423,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,14 +1445,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2">
         <v>1181121300</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>55</v>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1518,14 +1548,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2">
         <v>1181121300</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>55</v>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1598,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE7A3D1-E7BA-49DD-A496-83E9C2DB372B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,18 +1638,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="18">
         <v>17920000000000</v>
       </c>
     </row>
@@ -1627,7 +1657,7 @@
       <c r="A3" s="2">
         <v>2022</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="18">
         <v>24050000000000</v>
       </c>
     </row>
@@ -1635,15 +1665,15 @@
       <c r="A4" s="2">
         <v>2023</v>
       </c>
-      <c r="B4" s="16">
-        <v>33000000000000</v>
+      <c r="B4" s="18">
+        <v>34760000000000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2024</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="18">
         <v>37280000000000</v>
       </c>
     </row>
